--- a/docs/designs/NewProject_Template_v2.xlsx
+++ b/docs/designs/NewProject_Template_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20FDED-EA48-48EA-8CFA-CAE2C8DF1D12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB9214-C810-45A4-AF9E-BB961E948272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <definedName name="sprint1_done">Story1!$H$39</definedName>
     <definedName name="sprint1_hours">Story1!#REF!</definedName>
     <definedName name="sprint1_interval">Story1!$M$2</definedName>
-    <definedName name="sprint1_start">Story1!$O$2</definedName>
+    <definedName name="sprint1_start">Story1!$N$2</definedName>
     <definedName name="sprint1_target">Story1!$I$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>Todo</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>QA</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>x</t>
@@ -527,7 +524,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -614,11 +611,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,6 +620,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -637,20 +636,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -682,23 +674,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1003,6 +978,102 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Story1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Story1!$M$5:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy-mm-dd\ \(hh:mm\)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43527.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43527.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43527.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43527.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43527.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43528.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43528.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43528.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43528.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43528.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43528.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43529.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Story1!$N$5:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1496-46E5-B88E-01057019951F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1011,7 +1082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Target</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1035,43 +1106,43 @@
                 <c:formatCode>yyyy-mm-dd\ \(hh:mm\)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>43526</c:v>
+                  <c:v>43527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43526.17</c:v>
+                  <c:v>43527.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43526.34</c:v>
+                  <c:v>43527.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43526.51</c:v>
+                  <c:v>43527.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43526.68</c:v>
+                  <c:v>43527.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43526.85</c:v>
+                  <c:v>43527.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43527.02</c:v>
+                  <c:v>43528.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43527.19</c:v>
+                  <c:v>43528.19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43527.360000000001</c:v>
+                  <c:v>43528.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43527.53</c:v>
+                  <c:v>43528.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43527.7</c:v>
+                  <c:v>43528.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43527.87</c:v>
+                  <c:v>43528.87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43528.04</c:v>
+                  <c:v>43529.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,8 +1156,41 @@
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,135 +1199,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1496-46E5-B88E-01057019951F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Story1!$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Story1!$M$5:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy-mm-dd\ \(hh:mm\)</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43526</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43526.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43526.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43526.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43526.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43526.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43527.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43527.19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43527.360000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43527.53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43527.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43527.87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43528.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Story1!$P$5:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59D4-402F-B7B4-1EF33CE87CF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,156 +1213,7 @@
         <c:smooth val="0"/>
         <c:axId val="31022911"/>
         <c:axId val="60887135"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Story1!$N$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Time</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Story1!$M$5:$M$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>yyyy-mm-dd\ \(hh:mm\)</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>43526</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>43526.17</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>43526.34</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>43526.51</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>43526.68</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>43526.85</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>43527.02</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>43527.19</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>43527.360000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>43527.53</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>43527.7</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>43527.87</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>43528.04</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Story1!$N$5:$N$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>h:mm</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="1">
-                        <c:v>0.45833333333333331</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.54166666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.66666666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.79166666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.91666666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.45833333333333331</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.54166666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.66666666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.79166666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.91666666666666663</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.95833333333333337</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-1496-46E5-B88E-01057019951F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="31022911"/>
@@ -2170,33 +1996,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B20:G35" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B20:G35" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="B20:G35" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="12">
       <calculatedColumnFormula>B20+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{428E28ED-3A5D-4400-816D-83AE8AA8FFBD}" name="Task" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Asigned" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5CE22786-243A-459A-9777-0402AB471551}" name="Done" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{45BCF3FC-EDAA-400A-AC2A-4A74CB2CA099}" name="Tested" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{C3F4C3B0-DD36-47A4-8008-ED4DA11AF099}" name="Verified" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{428E28ED-3A5D-4400-816D-83AE8AA8FFBD}" name="Task" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Asigned" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{5CE22786-243A-459A-9777-0402AB471551}" name="Done" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{45BCF3FC-EDAA-400A-AC2A-4A74CB2CA099}" name="Tested" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C3F4C3B0-DD36-47A4-8008-ED4DA11AF099}" name="Verified" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85AB8A2C-C05D-4184-BBD0-44916944D3D1}" name="Table356" displayName="Table356" ref="M4:P17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="M4:P17" xr:uid="{B4E47BE6-B706-48D2-9A58-EF844AA63D10}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21AB817D-3FA6-45D0-AE28-7DB75AF351BD}" name="Date" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85AB8A2C-C05D-4184-BBD0-44916944D3D1}" name="Table356" displayName="Table356" ref="M4:O17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="M4:O17" xr:uid="{B4E47BE6-B706-48D2-9A58-EF844AA63D10}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{21AB817D-3FA6-45D0-AE28-7DB75AF351BD}" name="Date" dataDxfId="2">
       <calculatedColumnFormula>sprint1_start +L5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2E6AA19C-69EB-4838-8FF4-E99984170353}" name="Time" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A4DE0FF1-8DF7-4C5D-8133-416899B01540}" name="Target" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{6B645165-7342-41BB-B2F5-FCAE0876A18A}" name="Actual" dataDxfId="0">
-      <calculatedColumnFormula>sprint1_target-R5</calculatedColumnFormula>
+      <calculatedColumnFormula>sprint1_target-Q5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2524,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,15 +2366,14 @@
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -2557,577 +2381,533 @@
       <c r="M1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="O1" s="26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="X1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="27">
         <v>0.17</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28">
-        <v>43526</v>
-      </c>
-      <c r="P2" s="37">
+      <c r="N2" s="28">
+        <v>43527</v>
+      </c>
+      <c r="O2" s="37">
         <f>sprint1_start + (sprint1_interval*12)</f>
-        <v>43528.04</v>
+        <v>43529.04</v>
+      </c>
+      <c r="P2" s="24">
+        <f>DATEDIF(N2,O2,"d")+1</f>
+        <v>3</v>
       </c>
       <c r="Q2" s="24">
-        <f>DATEDIF(O2,P2,"d")+1</f>
-        <v>3</v>
-      </c>
-      <c r="R2" s="24">
-        <f ca="1">DATEDIF(O3,P2,"d")</f>
+        <f ca="1">DATEDIF(N3,O2,"d")</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="16">
+        <f>I39/P2</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="S2" s="29">
+        <f ca="1">(P2-Q2)*R2</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="16">
-        <f>I39/Q2</f>
-        <v>14.666666666666666</v>
-      </c>
-      <c r="T2" s="29">
-        <f ca="1">(Q2-R2)*S2</f>
-        <v>29.333333333333332</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="1">
+      <c r="W2" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="36">
-        <f>X2/12</f>
+      <c r="X2" s="36">
+        <f>W2/12</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="M3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="23">
+      <c r="N3" s="23">
         <f ca="1">NOW()</f>
-        <v>43527.413434027774</v>
-      </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="11"/>
-      <c r="V3" s="1">
+        <v>43527.714662615741</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="11"/>
+      <c r="U3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="1">
-        <f>V3*5-0.1</f>
+      <c r="W3" s="1">
+        <f>U3*5-0.1</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Y3" s="36">
-        <f t="shared" ref="Y3:Y6" si="0">X3/12</f>
+      <c r="X3" s="36">
+        <f t="shared" ref="X3:X6" si="0">W3/12</f>
         <v>0.40833333333333338</v>
       </c>
     </row>
-    <row r="4" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L4" s="34" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>11</v>
       </c>
+      <c r="P4" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="Q4" s="34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="V4" s="1">
+      <c r="U4" s="1">
         <v>2</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="1">
-        <f>X3+X2+X3</f>
+      <c r="W4" s="1">
+        <f>W3+W2+W3</f>
         <v>11.8</v>
       </c>
-      <c r="Y4" s="36">
+      <c r="X4" s="36">
         <f t="shared" si="0"/>
         <v>0.98333333333333339</v>
       </c>
     </row>
-    <row r="5" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="38">
         <f t="shared" ref="M5:M17" si="1">sprint1_start +L5</f>
-        <v>43526</v>
-      </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="10">
+        <v>43527</v>
+      </c>
+      <c r="N5" s="10">
         <f>sprint1_target</f>
         <v>44</v>
       </c>
-      <c r="P5" s="17">
-        <f t="shared" ref="P5:P17" si="2">sprint1_target-R5</f>
+      <c r="O5" s="17">
+        <f t="shared" ref="O5:O17" si="2">sprint1_target-Q5</f>
         <v>44</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10">
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="U5" s="1">
         <v>3</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="1">
-        <f>(X3+X2) + (X3+X2) + X3</f>
+      <c r="W5" s="1">
+        <f>(W3+W2) + (W3+W2) + W3</f>
         <v>18.700000000000003</v>
       </c>
-      <c r="Y5" s="36">
+      <c r="X5" s="36">
         <f t="shared" si="0"/>
         <v>1.5583333333333336</v>
       </c>
     </row>
-    <row r="6" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L6" s="16">
         <f t="shared" ref="L6:L17" si="3">L5+sprint1_interval</f>
         <v>0.17</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="38">
         <f t="shared" si="1"/>
-        <v>43526.17</v>
-      </c>
-      <c r="N6" s="39">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="17">
+        <v>43527.17</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="17">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="P6" s="22">
         <v>0</v>
       </c>
-      <c r="R6" s="10">
-        <f>R5+Q6</f>
+      <c r="Q6" s="10">
+        <f>Q5+P6</f>
         <v>0</v>
       </c>
-      <c r="S6" s="16">
-        <f t="shared" ref="S6:S17" si="4">(sprint1_target/12) *L6</f>
+      <c r="R6" s="16">
+        <f>(sprint1_target/12) *L6</f>
         <v>0.62333333333333341</v>
       </c>
-      <c r="V6" s="1">
+      <c r="U6" s="1">
         <v>4</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="1">
-        <f>(X3+X2) + (X3+X2) + (X3+X2)+  X3</f>
+      <c r="W6" s="1">
+        <f>(W3+W2) + (W3+W2) + (W3+W2)+  W3</f>
         <v>25.6</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="X6" s="36">
         <f t="shared" si="0"/>
         <v>2.1333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L7" s="16">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="38">
         <f t="shared" si="1"/>
-        <v>43526.34</v>
-      </c>
-      <c r="N7" s="39">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="17">
+        <v>43527.34</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="P7" s="22">
         <f>sprint1_done</f>
         <v>2</v>
       </c>
-      <c r="R7" s="10">
-        <f>MAX(Q7,R6)</f>
+      <c r="Q7" s="10">
+        <f>MAX(P7,Q6)</f>
         <v>2</v>
       </c>
-      <c r="S7" s="16">
-        <f t="shared" si="4"/>
+      <c r="R7" s="16">
+        <f>(sprint1_target/12) *L7</f>
         <v>1.2466666666666668</v>
       </c>
     </row>
-    <row r="8" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L8" s="16">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="38">
         <f t="shared" si="1"/>
-        <v>43526.51</v>
-      </c>
-      <c r="N8" s="39">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="17">
+        <v>43527.51</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="P8" s="22">
         <v>0</v>
       </c>
-      <c r="R8" s="10">
-        <f t="shared" ref="R8:R17" si="5">MAX(Q8,R7)</f>
+      <c r="Q8" s="10">
+        <f t="shared" ref="Q8:Q17" si="4">MAX(P8,Q7)</f>
         <v>2</v>
       </c>
-      <c r="S8" s="16">
-        <f t="shared" si="4"/>
+      <c r="R8" s="16">
+        <f>(sprint1_target/12) *L8</f>
         <v>1.8699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L9" s="16">
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="38">
         <f t="shared" si="1"/>
-        <v>43526.68</v>
-      </c>
-      <c r="N9" s="39">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="17">
+        <v>43527.68</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="P9" s="22">
         <v>0</v>
       </c>
-      <c r="R9" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q9" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S9" s="16">
-        <f t="shared" si="4"/>
+      <c r="R9" s="16">
+        <f>(sprint1_target/12) *L9</f>
         <v>2.4933333333333336</v>
       </c>
     </row>
-    <row r="10" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L10" s="16">
         <f t="shared" si="3"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="38">
         <f t="shared" si="1"/>
-        <v>43526.85</v>
-      </c>
-      <c r="N10" s="39">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="17">
+        <v>43527.85</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="P10" s="22">
         <v>0</v>
       </c>
-      <c r="R10" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q10" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S10" s="16">
-        <f t="shared" si="4"/>
+      <c r="R10" s="16">
+        <f>(sprint1_target/12) *L10</f>
         <v>3.1166666666666667</v>
       </c>
     </row>
-    <row r="11" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L11" s="16">
         <f t="shared" si="3"/>
         <v>1.02</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="38">
         <f t="shared" si="1"/>
-        <v>43527.02</v>
-      </c>
-      <c r="N11" s="39">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="17">
+        <v>43528.02</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="P11" s="22">
         <v>0</v>
       </c>
-      <c r="R11" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q11" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S11" s="16">
-        <f t="shared" si="4"/>
+      <c r="R11" s="16">
+        <f>(sprint1_target/12) *L11</f>
         <v>3.7399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L12" s="16">
         <f t="shared" si="3"/>
         <v>1.19</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="38">
         <f t="shared" si="1"/>
-        <v>43527.19</v>
-      </c>
-      <c r="N12" s="39">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="17">
+        <v>43528.19</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="P12" s="22">
         <v>0</v>
       </c>
-      <c r="R12" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q12" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S12" s="16">
-        <f t="shared" si="4"/>
+      <c r="R12" s="16">
+        <f>(sprint1_target/12) *L12</f>
         <v>4.3633333333333333</v>
       </c>
     </row>
-    <row r="13" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L13" s="16">
         <f t="shared" si="3"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="38">
         <f t="shared" si="1"/>
-        <v>43527.360000000001</v>
-      </c>
-      <c r="N13" s="39">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="17">
+        <v>43528.36</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="P13" s="22">
         <v>0</v>
       </c>
-      <c r="R13" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q13" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S13" s="16">
-        <f t="shared" si="4"/>
+      <c r="R13" s="16">
+        <f>(sprint1_target/12) *L13</f>
         <v>4.9866666666666664</v>
       </c>
     </row>
-    <row r="14" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L14" s="16">
         <f t="shared" si="3"/>
         <v>1.5299999999999998</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="38">
         <f t="shared" si="1"/>
-        <v>43527.53</v>
-      </c>
-      <c r="N14" s="39">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="17">
+        <v>43528.53</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="P14" s="22">
         <v>0</v>
       </c>
-      <c r="R14" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S14" s="16">
-        <f t="shared" si="4"/>
+      <c r="R14" s="16">
+        <f>(sprint1_target/12) *L14</f>
         <v>5.6099999999999994</v>
       </c>
     </row>
-    <row r="15" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L15" s="16">
         <f t="shared" si="3"/>
         <v>1.6999999999999997</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="38">
         <f t="shared" si="1"/>
-        <v>43527.7</v>
-      </c>
-      <c r="N15" s="39">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="17">
+        <v>43528.7</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="P15" s="22">
         <v>0</v>
       </c>
-      <c r="R15" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S15" s="16">
-        <f t="shared" si="4"/>
+      <c r="R15" s="16">
+        <f>(sprint1_target/12) *L15</f>
         <v>6.2333333333333325</v>
       </c>
     </row>
-    <row r="16" spans="9:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L16" s="16">
         <f t="shared" si="3"/>
         <v>1.8699999999999997</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="38">
         <f t="shared" si="1"/>
-        <v>43527.87</v>
-      </c>
-      <c r="N16" s="39">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="17">
+        <v>43528.87</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="P16" s="22">
         <v>0</v>
       </c>
-      <c r="R16" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q16" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S16" s="16">
-        <f t="shared" si="4"/>
+      <c r="R16" s="16">
+        <f>(sprint1_target/12) *L16</f>
         <v>6.8566666666666656</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L17" s="16">
         <f t="shared" si="3"/>
         <v>2.0399999999999996</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="39">
         <f t="shared" si="1"/>
-        <v>43528.04</v>
-      </c>
-      <c r="N17" s="40">
+        <v>43529.04</v>
+      </c>
+      <c r="N17" s="18">
         <v>0</v>
       </c>
-      <c r="O17" s="18">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="O17" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="P17" s="22">
         <v>0</v>
       </c>
-      <c r="R17" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q17" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S17" s="16">
-        <f t="shared" si="4"/>
+      <c r="R17" s="16">
+        <f>(sprint1_target/12) *L17</f>
         <v>7.4799999999999978</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L18" s="30"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="30"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3147,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1</v>
       </c>
@@ -3155,19 +2935,19 @@
         <v>26</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f>B21+1</f>
         <v>2</v>
@@ -3176,21 +2956,21 @@
         <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <f t="shared" ref="B23:B24" si="6">B22+1</f>
+        <f t="shared" ref="B23:B24" si="5">B22+1</f>
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3199,15 +2979,15 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3216,15 +2996,15 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <f t="shared" ref="B25:B28" si="7">B24+1</f>
+        <f t="shared" ref="B25:B28" si="6">B24+1</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3233,100 +3013,100 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f>B26+1</f>
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="41">
         <f>B28+1</f>
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="46"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="44">
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
         <f>B29+1</f>
         <v>10</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>70</v>
+      <c r="C30" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="46"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="44">
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="41">
         <f>B30+1</f>
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="46"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
-        <f t="shared" ref="B32:B36" si="8">B31+1</f>
+        <f t="shared" ref="B32:B35" si="7">B31+1</f>
         <v>12</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="48" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="10"/>
@@ -3336,11 +3116,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3349,27 +3129,27 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="48" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="10"/>
@@ -3378,12 +3158,12 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="46"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
@@ -3395,8 +3175,8 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
-      <c r="C38" s="55" t="s">
-        <v>65</v>
+      <c r="C38" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIF(Table1[Asigned],"na")</f>
@@ -3425,21 +3205,21 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="str">
+      <c r="A39" s="50" t="str">
         <f>A19</f>
         <v>Story1:Todo</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="1">
         <f>COUNTA(C21:C35)</f>
         <v>15</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:E39" si="9">COUNTA(D21:D35)-D38</f>
+        <f t="shared" ref="D39:E39" si="8">COUNTA(D21:D35)-D38</f>
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -3465,7 +3245,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="M2:O2 Q6:Q17" name="Range3"/>
+    <protectedRange sqref="P6:P17 M2:N2" name="Range3"/>
     <protectedRange sqref="A19" name="Range1"/>
     <protectedRange sqref="C36 B20:B36 D20:G36 C20" name="Table"/>
     <protectedRange sqref="C21:C35" name="Table_1"/>
@@ -3535,108 +3315,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>45</v>
+      <c r="A1" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="47" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="40"/>
       <c r="B6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="47" t="s">
-        <v>47</v>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="40"/>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="11" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="40"/>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="40"/>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="40"/>
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="40"/>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,35 +3469,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>45</v>
+      <c r="A1" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>41</v>
       </c>
     </row>

--- a/docs/designs/NewProject_Template_v2.xlsx
+++ b/docs/designs/NewProject_Template_v2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB9214-C810-45A4-AF9E-BB961E948272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3372" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Story1" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="sprint1_start">Story1!$N$2</definedName>
     <definedName name="sprint1_target">Story1!$I$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2C491D57-2A62-4469-8EF3-1D3D85FCAC80}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ \(hh:mm\)"/>
@@ -903,7 +902,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -942,6 +941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1007,46 +1007,46 @@
             <c:numRef>
               <c:f>Story1!$M$5:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>yyyy-mm-dd\ \(hh:mm\)</c:formatCode>
+                <c:formatCode>yyyy/mm/dd\ \(hh:mm\)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43527.17</c:v>
+                  <c:v>43528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43527.34</c:v>
+                  <c:v>43529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43527.51</c:v>
+                  <c:v>43530</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43527.68</c:v>
+                  <c:v>43531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43527.85</c:v>
+                  <c:v>43532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43528.02</c:v>
+                  <c:v>43533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43528.19</c:v>
+                  <c:v>43534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43528.36</c:v>
+                  <c:v>43535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43528.53</c:v>
+                  <c:v>43536</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43528.7</c:v>
+                  <c:v>43537</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43528.87</c:v>
+                  <c:v>43538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43529.04</c:v>
+                  <c:v>43539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1067,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1496-46E5-B88E-01057019951F}"/>
             </c:ext>
@@ -1103,46 +1103,46 @@
             <c:numRef>
               <c:f>Story1!$M$5:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>yyyy-mm-dd\ \(hh:mm\)</c:formatCode>
+                <c:formatCode>yyyy/mm/dd\ \(hh:mm\)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43527.17</c:v>
+                  <c:v>43528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43527.34</c:v>
+                  <c:v>43529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43527.51</c:v>
+                  <c:v>43530</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43527.68</c:v>
+                  <c:v>43531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43527.85</c:v>
+                  <c:v>43532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43528.02</c:v>
+                  <c:v>43533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43528.19</c:v>
+                  <c:v>43534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43528.36</c:v>
+                  <c:v>43535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43528.53</c:v>
+                  <c:v>43536</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43528.7</c:v>
+                  <c:v>43537</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43528.87</c:v>
+                  <c:v>43538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43529.04</c:v>
+                  <c:v>43539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1196,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1496-46E5-B88E-01057019951F}"/>
             </c:ext>
@@ -1211,18 +1211,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="31022911"/>
-        <c:axId val="60887135"/>
-        <c:extLst/>
+        <c:axId val="235916432"/>
+        <c:axId val="235912904"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31022911"/>
+        <c:axId val="235916432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy-mm-dd\ \(hh:mm\)" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/mm/dd\ \(hh:mm\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1259,7 +1259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60887135"/>
+        <c:crossAx val="235912904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1267,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60887135"/>
+        <c:axId val="235912904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31022911"/>
+        <c:crossAx val="235916432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1332,6 +1332,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1974,7 +1975,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08593939-DB3E-4F0E-950B-87A7835F5EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08593939-DB3E-4F0E-950B-87A7835F5EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,31 +1997,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B20:G35" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="B20:G35" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B20:G35" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="B20:G35"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="12">
+    <tableColumn id="1" name="No" dataDxfId="12">
       <calculatedColumnFormula>B20+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{428E28ED-3A5D-4400-816D-83AE8AA8FFBD}" name="Task" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Asigned" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5CE22786-243A-459A-9777-0402AB471551}" name="Done" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{45BCF3FC-EDAA-400A-AC2A-4A74CB2CA099}" name="Tested" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C3F4C3B0-DD36-47A4-8008-ED4DA11AF099}" name="Verified" dataDxfId="7"/>
+    <tableColumn id="2" name="Task" dataDxfId="11"/>
+    <tableColumn id="3" name="Asigned" dataDxfId="10"/>
+    <tableColumn id="4" name="Done" dataDxfId="9"/>
+    <tableColumn id="5" name="Tested" dataDxfId="8"/>
+    <tableColumn id="6" name="Verified" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85AB8A2C-C05D-4184-BBD0-44916944D3D1}" name="Table356" displayName="Table356" ref="M4:O17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="M4:O17" xr:uid="{B4E47BE6-B706-48D2-9A58-EF844AA63D10}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="M4:O17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="M4:O17"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{21AB817D-3FA6-45D0-AE28-7DB75AF351BD}" name="Date" dataDxfId="2">
+    <tableColumn id="1" name="Date" dataDxfId="2">
       <calculatedColumnFormula>sprint1_start +L5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A4DE0FF1-8DF7-4C5D-8133-416899B01540}" name="Target" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6B645165-7342-41BB-B2F5-FCAE0876A18A}" name="Actual" dataDxfId="0">
+    <tableColumn id="2" name="Target" dataDxfId="1"/>
+    <tableColumn id="3" name="Actual" dataDxfId="0">
       <calculatedColumnFormula>sprint1_target-Q5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2104,23 +2105,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2156,23 +2140,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2348,32 +2315,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:24" x14ac:dyDescent="0.3">
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -2412,35 +2379,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:24" x14ac:dyDescent="0.3">
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="27">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="N2" s="28">
         <v>43527</v>
       </c>
       <c r="O2" s="37">
         <f>sprint1_start + (sprint1_interval*12)</f>
-        <v>43529.04</v>
+        <v>43539</v>
       </c>
       <c r="P2" s="24">
         <f>DATEDIF(N2,O2,"d")+1</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="24">
         <f ca="1">DATEDIF(N3,O2,"d")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" s="16">
         <f>I39/P2</f>
-        <v>14.666666666666666</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="S2" s="29">
         <f ca="1">(P2-Q2)*R2</f>
-        <v>14.666666666666666</v>
+        <v>33.846153846153847</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -2456,7 +2423,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:24" x14ac:dyDescent="0.3">
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -2465,7 +2432,7 @@
       </c>
       <c r="N3" s="23">
         <f ca="1">NOW()</f>
-        <v>43527.714662615741</v>
+        <v>43536.285333217595</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="2"/>
@@ -2485,7 +2452,7 @@
         <v>0.40833333333333338</v>
       </c>
     </row>
-    <row r="4" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L4" s="34" t="s">
         <v>6</v>
       </c>
@@ -2522,7 +2489,7 @@
         <v>0.98333333333333339</v>
       </c>
     </row>
-    <row r="5" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L5" s="10">
         <v>0</v>
       </c>
@@ -2558,14 +2525,14 @@
         <v>1.5583333333333336</v>
       </c>
     </row>
-    <row r="6" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L6" s="16">
         <f t="shared" ref="L6:L17" si="3">L5+sprint1_interval</f>
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="M6" s="38">
         <f t="shared" si="1"/>
-        <v>43527.17</v>
+        <v>43528</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="17">
@@ -2580,8 +2547,8 @@
         <v>0</v>
       </c>
       <c r="R6" s="16">
-        <f>(sprint1_target/12) *L6</f>
-        <v>0.62333333333333341</v>
+        <f t="shared" ref="R6:R17" si="4">(sprint1_target/12) *L6</f>
+        <v>3.6666666666666665</v>
       </c>
       <c r="U6" s="1">
         <v>4</v>
@@ -2598,14 +2565,14 @@
         <v>2.1333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>0.34</v>
+        <v>2</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="1"/>
-        <v>43527.34</v>
+        <v>43529</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="17">
@@ -2621,18 +2588,18 @@
         <v>2</v>
       </c>
       <c r="R7" s="16">
-        <f>(sprint1_target/12) *L7</f>
-        <v>1.2466666666666668</v>
-      </c>
-    </row>
-    <row r="8" spans="9:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>3</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="1"/>
-        <v>43527.51</v>
+        <v>43530</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="17">
@@ -2643,22 +2610,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" ref="Q8:Q17" si="4">MAX(P8,Q7)</f>
+        <f t="shared" ref="Q8:Q17" si="5">MAX(P8,Q7)</f>
         <v>2</v>
       </c>
       <c r="R8" s="16">
-        <f>(sprint1_target/12) *L8</f>
-        <v>1.8699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="9:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0.68</v>
+        <v>4</v>
       </c>
       <c r="M9" s="38">
         <f t="shared" si="1"/>
-        <v>43527.68</v>
+        <v>43531</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="17">
@@ -2669,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="Q9" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R9" s="16">
-        <f>(sprint1_target/12) *L9</f>
-        <v>2.4933333333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="9:24" x14ac:dyDescent="0.25">
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L10" s="16">
         <f t="shared" si="3"/>
-        <v>0.85000000000000009</v>
+        <v>5</v>
       </c>
       <c r="M10" s="38">
         <f t="shared" si="1"/>
-        <v>43527.85</v>
+        <v>43532</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="17">
@@ -2695,22 +2662,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="16">
-        <f>(sprint1_target/12) *L10</f>
-        <v>3.1166666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="9:24" x14ac:dyDescent="0.25">
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L11" s="16">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>6</v>
       </c>
       <c r="M11" s="38">
         <f t="shared" si="1"/>
-        <v>43528.02</v>
+        <v>43533</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="17">
@@ -2721,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R11" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R11" s="16">
-        <f>(sprint1_target/12) *L11</f>
-        <v>3.7399999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="9:24" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L12" s="16">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>7</v>
       </c>
       <c r="M12" s="38">
         <f t="shared" si="1"/>
-        <v>43528.19</v>
+        <v>43534</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="17">
@@ -2747,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R12" s="16">
-        <f>(sprint1_target/12) *L12</f>
-        <v>4.3633333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="9:24" x14ac:dyDescent="0.25">
+        <v>25.666666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L13" s="16">
         <f t="shared" si="3"/>
-        <v>1.3599999999999999</v>
+        <v>8</v>
       </c>
       <c r="M13" s="38">
         <f t="shared" si="1"/>
-        <v>43528.36</v>
+        <v>43535</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="17">
@@ -2773,22 +2740,22 @@
         <v>0</v>
       </c>
       <c r="Q13" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R13" s="16">
-        <f>(sprint1_target/12) *L13</f>
-        <v>4.9866666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="9:24" x14ac:dyDescent="0.25">
+        <v>29.333333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L14" s="16">
         <f t="shared" si="3"/>
-        <v>1.5299999999999998</v>
+        <v>9</v>
       </c>
       <c r="M14" s="38">
         <f t="shared" si="1"/>
-        <v>43528.53</v>
+        <v>43536</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="17">
@@ -2799,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R14" s="16">
-        <f>(sprint1_target/12) *L14</f>
-        <v>5.6099999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="9:24" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L15" s="16">
         <f t="shared" si="3"/>
-        <v>1.6999999999999997</v>
+        <v>10</v>
       </c>
       <c r="M15" s="38">
         <f t="shared" si="1"/>
-        <v>43528.7</v>
+        <v>43537</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="17">
@@ -2825,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R15" s="16">
-        <f>(sprint1_target/12) *L15</f>
-        <v>6.2333333333333325</v>
-      </c>
-    </row>
-    <row r="16" spans="9:24" x14ac:dyDescent="0.25">
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="9:24" x14ac:dyDescent="0.3">
       <c r="L16" s="16">
         <f t="shared" si="3"/>
-        <v>1.8699999999999997</v>
+        <v>11</v>
       </c>
       <c r="M16" s="38">
         <f t="shared" si="1"/>
-        <v>43528.87</v>
+        <v>43538</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="17">
@@ -2851,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="Q16" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="16">
-        <f>(sprint1_target/12) *L16</f>
-        <v>6.8566666666666656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L17" s="16">
         <f t="shared" si="3"/>
-        <v>2.0399999999999996</v>
+        <v>12</v>
       </c>
       <c r="M17" s="39">
         <f t="shared" si="1"/>
-        <v>43529.04</v>
+        <v>43539</v>
       </c>
       <c r="N17" s="18">
         <v>0</v>
@@ -2879,15 +2846,15 @@
         <v>0</v>
       </c>
       <c r="Q17" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R17" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R17" s="16">
-        <f>(sprint1_target/12) *L17</f>
-        <v>7.4799999999999978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L18" s="30"/>
       <c r="M18" s="31"/>
       <c r="N18" s="19"/>
@@ -2896,7 +2863,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="52" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +2874,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2927,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>1</v>
       </c>
@@ -2947,7 +2914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f>B21+1</f>
         <v>2</v>
@@ -2968,9 +2935,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <f t="shared" ref="B23:B24" si="5">B22+1</f>
+        <f t="shared" ref="B23:B24" si="6">B22+1</f>
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2985,9 +2952,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3002,9 +2969,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <f t="shared" ref="B25:B28" si="6">B24+1</f>
+        <f t="shared" ref="B25:B28" si="7">B24+1</f>
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3019,9 +2986,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3032,7 +2999,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f>B26+1</f>
         <v>7</v>
@@ -3045,9 +3012,9 @@
       <c r="F27" s="10"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3062,7 +3029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <f>B28+1</f>
         <v>9</v>
@@ -3075,7 +3042,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="43"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <f>B29+1</f>
         <v>10</v>
@@ -3088,7 +3055,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <f>B30+1</f>
         <v>11</v>
@@ -3101,9 +3068,9 @@
       <c r="F31" s="18"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
-        <f t="shared" ref="B32:B35" si="7">B31+1</f>
+        <f t="shared" ref="B32:B35" si="8">B31+1</f>
         <v>12</v>
       </c>
       <c r="C32" s="48" t="s">
@@ -3114,9 +3081,9 @@
       <c r="F32" s="10"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3127,9 +3094,9 @@
       <c r="F33" s="10"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3144,9 +3111,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -3157,7 +3124,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
       <c r="D36" s="18"/>
@@ -3165,7 +3132,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="35"/>
       <c r="D37" s="19"/>
@@ -3173,7 +3140,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" s="49" t="s">
         <v>64</v>
@@ -3204,7 +3171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="str">
         <f>A19</f>
         <v>Story1:Todo</v>
@@ -3215,11 +3182,11 @@
         <v>15</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:E39" si="8">COUNTA(D21:D35)-D38</f>
+        <f t="shared" ref="D39:E39" si="9">COUNTA(D21:D35)-D38</f>
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F39" s="1">
@@ -3301,20 +3268,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAD6D6-A384-4AEA-8AC2-BBE5FFB636DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
@@ -3322,129 +3289,129 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -3456,19 +3423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60861CDF-960E-4F70-9B42-1E7C1BF100C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
@@ -3476,27 +3443,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
         <v>41</v>
       </c>
